--- a/src/showbuild/xls/B suite.xlsx
+++ b/src/showbuild/xls/B suite.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16815" windowHeight="6270" tabRatio="825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16815" windowHeight="6270" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="426">
   <si>
     <t>TCID</t>
   </si>
@@ -1305,6 +1305,27 @@
   </si>
   <si>
     <t>ConfigureExhibitors</t>
+  </si>
+  <si>
+    <t>Exhibits Open/Close Dates</t>
+  </si>
+  <si>
+    <t>1/8/2020</t>
+  </si>
+  <si>
+    <t>1/5/2020</t>
+  </si>
+  <si>
+    <t>2/4/2019</t>
+  </si>
+  <si>
+    <t>1/11/2020</t>
+  </si>
+  <si>
+    <t>1/13/2020</t>
+  </si>
+  <si>
+    <t>6/28/2019</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1438,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1498,9 +1519,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1963,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,15 +3178,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="40" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -3177,7 +3209,7 @@
       <c r="B1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="38" t="s">
         <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3237,7 +3269,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="25" t="s">
         <v>206</v>
       </c>
@@ -3283,8 +3315,8 @@
         <v>205</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="36">
-        <v>43451</v>
+      <c r="C3" s="39">
+        <v>43841</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>249</v>
@@ -3337,8 +3369,8 @@
         <v>203</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="36">
-        <v>43450</v>
+      <c r="C4" s="39">
+        <v>43838</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>252</v>
@@ -3393,8 +3425,8 @@
         <v>203</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="36">
-        <v>43450</v>
+      <c r="C5" s="39">
+        <v>43838</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>255</v>
@@ -3451,8 +3483,8 @@
       <c r="B6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="36">
-        <v>43450</v>
+      <c r="C6" s="39">
+        <v>43838</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>328</v>
@@ -3507,8 +3539,8 @@
         <v>203</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="36">
-        <v>43450</v>
+      <c r="C7" s="39">
+        <v>43838</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>259</v>
@@ -3563,8 +3595,8 @@
         <v>203</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="36">
-        <v>43450</v>
+      <c r="C8" s="39">
+        <v>43838</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>72</v>
@@ -3621,8 +3653,8 @@
       <c r="B9" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="36">
-        <v>43450</v>
+      <c r="C9" s="39">
+        <v>43838</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>329</v>
@@ -3677,8 +3709,8 @@
         <v>204</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="36">
-        <v>43450</v>
+      <c r="C10" s="39">
+        <v>43838</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>265</v>
@@ -3733,8 +3765,8 @@
         <v>203</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="36">
-        <v>43453</v>
+      <c r="C11" s="39">
+        <v>43839</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>73</v>
@@ -3789,8 +3821,8 @@
         <v>201</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="36">
-        <v>43453</v>
+      <c r="C12" s="39">
+        <v>43839</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>269</v>
@@ -3845,8 +3877,8 @@
         <v>201</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="36">
-        <v>43453</v>
+      <c r="C13" s="39">
+        <v>43839</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>271</v>
@@ -3901,8 +3933,8 @@
         <v>201</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="36">
-        <v>43453</v>
+      <c r="C14" s="39">
+        <v>43839</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>273</v>
@@ -3957,8 +3989,8 @@
         <v>203</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="36">
-        <v>43453</v>
+      <c r="C15" s="39">
+        <v>43839</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>74</v>
@@ -4013,8 +4045,8 @@
         <v>201</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="36">
-        <v>43453</v>
+      <c r="C16" s="39">
+        <v>43839</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>276</v>
@@ -4069,8 +4101,8 @@
         <v>201</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="36">
-        <v>43453</v>
+      <c r="C17" s="39">
+        <v>43839</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>278</v>
@@ -4125,8 +4157,8 @@
         <v>201</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="36">
-        <v>43453</v>
+      <c r="C18" s="39">
+        <v>43839</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>280</v>
@@ -4181,8 +4213,8 @@
         <v>204</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="36">
-        <v>43453</v>
+      <c r="C19" s="39">
+        <v>43839</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>282</v>
@@ -4237,8 +4269,8 @@
         <v>203</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="36">
-        <v>43454</v>
+      <c r="C20" s="39">
+        <v>43840</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>284</v>
@@ -4293,8 +4325,8 @@
         <v>202</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="36">
-        <v>43454</v>
+      <c r="C21" s="39">
+        <v>43840</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>286</v>
@@ -4349,8 +4381,8 @@
         <v>202</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="36">
-        <v>43454</v>
+      <c r="C22" s="39">
+        <v>43840</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>288</v>
@@ -4405,8 +4437,8 @@
         <v>202</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="36">
-        <v>43454</v>
+      <c r="C23" s="39">
+        <v>43840</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>290</v>
@@ -4461,8 +4493,8 @@
         <v>205</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="36">
-        <v>43454</v>
+      <c r="C24" s="39">
+        <v>43840</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>292</v>
@@ -4515,8 +4547,8 @@
         <v>204</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="36">
-        <v>43454</v>
+      <c r="C25" s="39">
+        <v>43840</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>294</v>
@@ -4571,8 +4603,8 @@
         <v>203</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="36">
-        <v>43454</v>
+      <c r="C26" s="39">
+        <v>43840</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>296</v>
@@ -4627,8 +4659,8 @@
         <v>204</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="36">
-        <v>43454</v>
+      <c r="C27" s="39">
+        <v>43840</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>298</v>
@@ -5000,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,41 +5075,41 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="37">
-        <v>43449</v>
+        <v>419</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="37">
-        <v>43457</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="37">
-        <v>43450</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="37">
-        <v>43455</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -5087,19 +5119,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="37">
-        <v>43452</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="37">
-        <v>43454</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -5109,16 +5141,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="37">
-        <v>43405</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37">
-        <v>43405</v>
+      <c r="D5" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -5131,16 +5163,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="37">
-        <v>43405</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37">
-        <v>43405</v>
+      <c r="D6" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -5150,6 +5182,28 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5159,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,14 +5268,14 @@
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="37">
-        <v>43347</v>
+      <c r="C2" s="36">
+        <v>43646</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="37">
-        <v>43391</v>
+      <c r="E2" s="36">
+        <v>43838</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
@@ -5239,17 +5293,17 @@
       <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="37">
-        <v>43422</v>
+      <c r="C3" s="36">
+        <v>43838</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="37">
-        <v>43452</v>
+      <c r="E3" s="36">
+        <v>43842</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -5264,14 +5318,14 @@
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="37">
-        <v>43391</v>
+      <c r="C4" s="36">
+        <v>43470</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="37">
-        <v>43422</v>
+      <c r="E4" s="36">
+        <v>43646</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
@@ -5281,6 +5335,9 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/showbuild/xls/B suite.xlsx
+++ b/src/showbuild/xls/B suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16815" windowHeight="6270" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16200" windowHeight="6270" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="ConfigurePackages" sheetId="19" r:id="rId16"/>
     <sheet name="ConfigureExhibitors" sheetId="20" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="426">
   <si>
     <t>TCID</t>
   </si>
@@ -1310,22 +1310,22 @@
     <t>Exhibits Open/Close Dates</t>
   </si>
   <si>
-    <t>1/8/2020</t>
-  </si>
-  <si>
-    <t>1/5/2020</t>
-  </si>
-  <si>
-    <t>2/4/2019</t>
-  </si>
-  <si>
-    <t>1/11/2020</t>
-  </si>
-  <si>
-    <t>1/13/2020</t>
-  </si>
-  <si>
-    <t>6/28/2019</t>
+    <t xml:space="preserve">10:00 AM </t>
+  </si>
+  <si>
+    <t>Move In/Out Dates</t>
+  </si>
+  <si>
+    <t>7/4/2019</t>
+  </si>
+  <si>
+    <t>9/28/2019</t>
+  </si>
+  <si>
+    <t>09/10/2019</t>
+  </si>
+  <si>
+    <t>09/18/2019</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1438,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1533,6 +1533,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1840,7 +1859,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3335,7 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="39">
-        <v>43841</v>
+        <v>43723</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>249</v>
@@ -3370,7 +3389,7 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>252</v>
@@ -3426,7 +3445,7 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>255</v>
@@ -3484,7 +3503,7 @@
         <v>217</v>
       </c>
       <c r="C6" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>328</v>
@@ -3540,7 +3559,7 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>259</v>
@@ -3596,7 +3615,7 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>72</v>
@@ -3654,7 +3673,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>329</v>
@@ -3710,7 +3729,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="39">
-        <v>43838</v>
+        <v>43721</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>265</v>
@@ -3766,7 +3785,7 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>73</v>
@@ -3822,7 +3841,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>269</v>
@@ -3878,7 +3897,7 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>271</v>
@@ -3934,7 +3953,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>273</v>
@@ -3990,7 +4009,7 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>74</v>
@@ -4046,7 +4065,7 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>276</v>
@@ -4102,7 +4121,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>278</v>
@@ -4158,7 +4177,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>280</v>
@@ -4214,7 +4233,7 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="39">
-        <v>43839</v>
+        <v>43722</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>282</v>
@@ -4270,7 +4289,7 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>284</v>
@@ -4326,7 +4345,7 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>286</v>
@@ -4382,7 +4401,7 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>288</v>
@@ -4438,7 +4457,7 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>290</v>
@@ -4494,7 +4513,7 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>292</v>
@@ -4548,7 +4567,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>294</v>
@@ -4604,7 +4623,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>296</v>
@@ -4660,7 +4679,7 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="39">
-        <v>43840</v>
+        <v>43723</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>298</v>
@@ -5032,22 +5051,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5073,84 +5095,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="47">
+        <v>43721</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="47">
+        <v>43724</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="42"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>423</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="47">
+        <v>43718</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="47">
+        <v>43726</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="42"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="47">
+        <v>43655</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>424</v>
+      <c r="D5" s="47">
+        <v>43736</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -5160,19 +5186,21 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="42"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>425</v>
+      <c r="D6" s="46" t="s">
+        <v>423</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -5182,28 +5210,54 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="42"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
+      </c>
+      <c r="B7" s="36">
+        <v>43721</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>425</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="36">
+        <v>43724</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="36">
+        <v>43720</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="36">
+        <v>43724</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5216,7 +5270,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,19 +5317,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="36">
-        <v>43646</v>
+        <v>43720</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="36">
-        <v>43838</v>
+        <v>43751</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
@@ -5288,22 +5342,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="36">
-        <v>43838</v>
+        <v>43752</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="36">
-        <v>43842</v>
+        <v>43781</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -5313,22 +5367,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="36">
-        <v>43470</v>
+        <v>43782</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="36">
-        <v>43646</v>
+        <v>44151</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>3</v>

--- a/src/showbuild/xls/B suite.xlsx
+++ b/src/showbuild/xls/B suite.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED171B-D591-4F5A-9455-0F6D0273AD4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16200" windowHeight="6270" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="10860" tabRatio="825" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1556,7 +1557,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="1"/>
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1564,6 +1565,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1612,7 +1616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1645,9 +1649,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1680,6 +1701,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1855,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2011,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3004,7 +3042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,11 +3232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3373,7 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>249</v>
@@ -3389,7 +3427,7 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>252</v>
@@ -3445,7 +3483,7 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>255</v>
@@ -3503,7 +3541,7 @@
         <v>217</v>
       </c>
       <c r="C6" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>328</v>
@@ -3559,7 +3597,7 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>259</v>
@@ -3615,7 +3653,7 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>72</v>
@@ -3673,7 +3711,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>329</v>
@@ -3729,7 +3767,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="39">
-        <v>43721</v>
+        <v>43792</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>265</v>
@@ -3785,7 +3823,7 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>73</v>
@@ -3841,7 +3879,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>269</v>
@@ -3897,7 +3935,7 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>271</v>
@@ -3953,7 +3991,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>273</v>
@@ -4009,7 +4047,7 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>74</v>
@@ -4065,7 +4103,7 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>276</v>
@@ -4121,7 +4159,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>278</v>
@@ -4177,7 +4215,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>280</v>
@@ -4233,7 +4271,7 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="39">
-        <v>43722</v>
+        <v>43793</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>282</v>
@@ -4289,7 +4327,7 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>284</v>
@@ -4345,7 +4383,7 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>286</v>
@@ -4401,7 +4439,7 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>288</v>
@@ -4457,7 +4495,7 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>290</v>
@@ -4513,7 +4551,7 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>292</v>
@@ -4567,7 +4605,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>294</v>
@@ -4623,7 +4661,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>296</v>
@@ -4679,7 +4717,7 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="39">
-        <v>43723</v>
+        <v>43794</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>298</v>
@@ -4736,7 +4774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4824,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4963,7 +5001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5042,7 +5080,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5050,10 +5088,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5266,7 +5304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5400,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5462,7 +5500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5549,7 +5587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5907,7 +5945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6250,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -7073,9 +7111,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q6:Q17" r:id="rId1" display="speaker@experienttest.com"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="Q3:Q5" r:id="rId3" display="speaker@experienttest.com"/>
+    <hyperlink ref="Q6:Q17" r:id="rId1" display="speaker@experienttest.com" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="Q3:Q5" r:id="rId3" display="speaker@experienttest.com" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
